--- a/biology/Zoologie/Bulbul_à_tête_sombre/Bulbul_à_tête_sombre.xlsx
+++ b/biology/Zoologie/Bulbul_à_tête_sombre/Bulbul_à_tête_sombre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_t%C3%AAte_sombre</t>
+          <t>Bulbul_à_tête_sombre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arizelocichla nigriceps
 Le Bulbul à tête sombre (Arizelocichla nigriceps) est une espèce de passereaux de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_t%C3%AAte_sombre</t>
+          <t>Bulbul_à_tête_sombre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve au Burundi, République démocratique du Congo, Kenya, Malawi, Mozambique, Ouganda, Rwanda, Tanzanie et Zambie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_t%C3%AAte_sombre</t>
+          <t>Bulbul_à_tête_sombre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_t%C3%AAte_sombre</t>
+          <t>Bulbul_à_tête_sombre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bulbul à gorge verte (Arizelocichla chlorigula) est considéré par certains ornithologistes comme une sous-espèce d'Arizelocichla nigriceps.
 </t>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_t%C3%AAte_sombre</t>
+          <t>Bulbul_à_tête_sombre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe les deux sous-espèces suivantes :
 Arizelocichla nigriceps nigriceps (Shelley) 1889
